--- a/System/adviceManagement/unitTests/files/CounterpartyRiskNames.xlsx
+++ b/System/adviceManagement/unitTests/files/CounterpartyRiskNames.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Claudio</t>
   </si>
@@ -34,6 +34,9 @@
   </si>
   <si>
     <t>Counterparty risk</t>
+  </si>
+  <si>
+    <t>Attilio</t>
   </si>
 </sst>
 </file>
@@ -376,10 +379,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -415,6 +418,11 @@
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/System/adviceManagement/unitTests/files/CounterpartyRiskNames.xlsx
+++ b/System/adviceManagement/unitTests/files/CounterpartyRiskNames.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="9">
   <si>
     <t>Claudio</t>
   </si>
@@ -33,10 +33,16 @@
     <t>Riccardo</t>
   </si>
   <si>
-    <t>Counterparty risk</t>
+    <t>Counterparty</t>
+  </si>
+  <si>
+    <t>Pippo</t>
   </si>
   <si>
     <t>Attilio</t>
+  </si>
+  <si>
+    <t>Luciana</t>
   </si>
 </sst>
 </file>
@@ -379,10 +385,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:A16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A2" sqref="A2:A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -397,32 +403,77 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/System/adviceManagement/unitTests/files/CounterpartyRiskNames.xlsx
+++ b/System/adviceManagement/unitTests/files/CounterpartyRiskNames.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="7">
   <si>
     <t>Claudio</t>
   </si>
@@ -34,12 +34,6 @@
   </si>
   <si>
     <t>Counterparty</t>
-  </si>
-  <si>
-    <t>Pippo</t>
-  </si>
-  <si>
-    <t>Attilio</t>
   </si>
   <si>
     <t>Luciana</t>
@@ -388,7 +382,7 @@
   <dimension ref="A1:A16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A8"/>
+      <selection activeCell="A2" sqref="A2:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -403,37 +397,37 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
@@ -443,7 +437,7 @@
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
@@ -453,22 +447,22 @@
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
